--- a/BFS/EquityResearchoffering/MonthlyProjectStatusReport-EquityResearchofferingMay2016.xlsx
+++ b/BFS/EquityResearchoffering/MonthlyProjectStatusReport-EquityResearchofferingMay2016.xlsx
@@ -12,14 +12,11 @@
     <sheet name="Pivot" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
-  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="109">
   <si>
     <t>Project ID</t>
   </si>
@@ -55,27 +52,18 @@
     <t>Training Needs</t>
   </si>
   <si>
-    <t>&lt;any training pending&gt;</t>
-  </si>
-  <si>
     <t>&lt;mention the pending needs and challenges if any&gt;</t>
   </si>
   <si>
     <t>Critical Risks</t>
   </si>
   <si>
-    <t>&lt;Count of open risks&gt;</t>
-  </si>
-  <si>
     <t>&lt;Refer critical risks from PP&gt;</t>
   </si>
   <si>
     <t>Critical Issues</t>
   </si>
   <si>
-    <t>&lt;Count of open issues&gt;</t>
-  </si>
-  <si>
     <t>&lt;Refer critical issues from PP / WSR&gt;</t>
   </si>
   <si>
@@ -91,9 +79,6 @@
     <t>PHI</t>
   </si>
   <si>
-    <t>Target &lt;&gt;, Actuals &lt;&gt;</t>
-  </si>
-  <si>
     <t>Open NC / Observations of IQA</t>
   </si>
   <si>
@@ -142,9 +127,6 @@
     <t>Issues</t>
   </si>
   <si>
-    <t>Project issues need attention</t>
-  </si>
-  <si>
     <t>Metrics</t>
   </si>
   <si>
@@ -233,15 +215,6 @@
   </si>
   <si>
     <t>G7</t>
-  </si>
-  <si>
-    <t>Count of Grade</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
   </si>
   <si>
     <t>No. of consultant</t>
@@ -278,37 +251,76 @@
 3) Information Delivery mechanism to analyze the metrics and trends via Dashboards, and provide inputs to the equity research report"</t>
   </si>
   <si>
-    <t>Final Version of the Analyst Report</t>
-  </si>
-  <si>
     <t>WIP</t>
   </si>
   <si>
-    <t>Testing and corrections</t>
-  </si>
-  <si>
-    <t>Yet to Start</t>
-  </si>
-  <si>
     <t>PRJ-4713</t>
   </si>
   <si>
-    <t>10-K Report Display</t>
-  </si>
-  <si>
-    <t>Integrating P/E multiple with ER dashboard</t>
-  </si>
-  <si>
-    <t>Macro for P/E multiple</t>
-  </si>
-  <si>
-    <t>Equity Research Offering Monthly Status Report - April 2016</t>
-  </si>
-  <si>
-    <t>Populating Modelling input sheet for P/E multiple</t>
-  </si>
-  <si>
-    <t>New dashboard for Financial Modelling</t>
+    <t>Equity Research Offering Monthly Status Report - May 2016</t>
+  </si>
+  <si>
+    <t>Indumathy Kannan</t>
+  </si>
+  <si>
+    <t>Planned in June</t>
+  </si>
+  <si>
+    <t>Mobile dashboard changes</t>
+  </si>
+  <si>
+    <t>Twitter Sentiment analysis integration</t>
+  </si>
+  <si>
+    <t>Financial modelling integration - DCF</t>
+  </si>
+  <si>
+    <t>Audit Trailing of Analyst report</t>
+  </si>
+  <si>
+    <t>Audit Trailing of Modelling</t>
+  </si>
+  <si>
+    <t>Macro News - Web Scraping, Loading and Dashboard</t>
+  </si>
+  <si>
+    <t>News in Real Time</t>
+  </si>
+  <si>
+    <t>Google Alerts integration</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Xurmo integration </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Complexity is yet to be ascertained)</t>
+    </r>
+  </si>
+  <si>
+    <t>Tweaking of iPad dashboards</t>
+  </si>
+  <si>
+    <t>Full set of Documents, Final Sign off, Handing Over Procedure to Innovation Lab</t>
+  </si>
+  <si>
+    <t>Estimate Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yet to Start </t>
+  </si>
+  <si>
+    <t>Modification in P/E multiple (Enhancements)</t>
+  </si>
+  <si>
+    <t>Modification in Final report for demo (Corrections)</t>
   </si>
   <si>
     <r>
@@ -335,14 +347,14 @@
       <t xml:space="preserve">10-K Report Display - 5/4/2016 - Completed
 Populating Modelling input sheet for P/E multiple - 5/4/2016 - Completed
 Macro for P/E multiple - 5/9/2016 - Completed
-Integrating P/E multiple with ER dashboard - 5/13/2016 - Completed
+Integrating P/E multiple with ER Framework(Dashboard) - 5/13/2016 - Completed
 Final Version of the Analyst Report - 5/18/2016 - Completed
 US DMZ configuration - 5/20/2016 - Completed
 Financial modelling integration - PE - 5/25/2016 - Completed
-IPAD deck Preparation - 5/20/2016 - Completed
+IPAD deck Preparation for Sales Team - 5/20/2016 - Completed
 IPAD upgradation for sales meet - 5/20/2016- Completed
-Final Report correction - WIP
-P/E multiple model for Demo - WIP
+Final Report Enhancements (Corrections)- Audit Trailing in Analyst Report - WIP
+P/E multiple model (Macro Enhancements) - WIP
 Twitter Analytics - WIP
 </t>
     </r>
@@ -372,6 +384,42 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Bakkiya Lakshmi</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Indumathy K</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Shaik Akram Basha</t>
+  </si>
+  <si>
+    <t>Jyothi Swaroop Mummidi</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Release date may change based client specific demo / changes ad-hoc</t>
+  </si>
+  <si>
+    <t>Trainee</t>
+  </si>
+  <si>
+    <t>No Issues Identified</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
 </sst>
 </file>
 
@@ -380,7 +428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +490,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -482,12 +537,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -498,8 +547,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -687,17 +742,6 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
       <top style="thin">
         <color theme="0"/>
       </top>
@@ -1087,17 +1131,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color theme="0"/>
       </top>
@@ -1273,6 +1306,87 @@
       <top/>
       <bottom style="thin">
         <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1281,287 +1395,284 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1675,7 +1786,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1765,7 +1876,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,12 +2058,12 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="pyramid"/>
-        <c:axId val="223754880"/>
-        <c:axId val="223768960"/>
+        <c:axId val="96774784"/>
+        <c:axId val="96784768"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="223754880"/>
+        <c:axId val="96774784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,7 +2072,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223768960"/>
+        <c:crossAx val="96784768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1969,7 +2080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223768960"/>
+        <c:axId val="96784768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,7 +2090,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223754880"/>
+        <c:crossAx val="96774784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2103,7 +2214,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2193,7 +2304,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2375,12 +2486,12 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="pyramid"/>
-        <c:axId val="227388416"/>
-        <c:axId val="227406592"/>
+        <c:axId val="98213888"/>
+        <c:axId val="98215424"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="227388416"/>
+        <c:axId val="98213888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2500,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227406592"/>
+        <c:crossAx val="98215424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2397,7 +2508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227406592"/>
+        <c:axId val="98215424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,7 +2518,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227388416"/>
+        <c:crossAx val="98213888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2576,298 +2687,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Mohamed younus A" refreshedDate="42450.750070833332" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="17">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A2:H31" sheet="ConsultantMatrix"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="Name" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Role" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Grade" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
-        <s v="G3"/>
-        <s v="G2"/>
-        <s v="G5"/>
-        <s v="G6"/>
-        <s v="G7"/>
-        <s v="G8"/>
-        <s v="G4"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="% Allocated" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Consultant Start Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Consultant Release Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Owning Unit" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Remarks" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="9">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item h="1" x="7"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Grade" fld="2" subtotal="count" baseField="0" baseItem="2683416"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3157,10 +2976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I63"/>
+  <dimension ref="B3:I70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:I33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3174,822 +2993,950 @@
   <sheetData>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
+      <c r="B4" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="14"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>79</v>
+      <c r="C8" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="110"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>81</v>
+      <c r="C9" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="110"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="23" t="s">
+        <v>79</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="110"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>82</v>
+      <c r="C11" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="81"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="110"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>80</v>
+      <c r="C12" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="110"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="47">
+      <c r="B13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="43">
         <v>42439</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="48">
+      <c r="B14" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="44">
         <v>42521</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="42">
         <v>92526</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="113"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="78"/>
+      <c r="B18" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="107"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="79"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="78"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="107"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="79"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="78"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="107"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="79"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="107"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="79"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="78"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="107"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="14"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="99"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="102"/>
+      <c r="B25" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="103"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="105"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="69"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="103"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="105"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="69"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="103"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="105"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="69"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="103"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="105"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="69"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="103"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="105"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="69"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="103"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="105"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="69"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="103"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="105"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="69"/>
     </row>
     <row r="33" spans="2:9" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="106"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="108"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="72"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="14"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="96"/>
+      <c r="B35" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="116"/>
     </row>
     <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="71" t="s">
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="104"/>
+    </row>
+    <row r="37" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="72"/>
-    </row>
-    <row r="37" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="17" t="s">
+      <c r="C37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="88"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="C38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="75"/>
-    </row>
-    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="104"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="86"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="88"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="71" t="s">
+      <c r="D40" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="72"/>
-    </row>
-    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="104"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="86"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="88"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="C42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="72"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="17" t="s">
+      <c r="D42" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="75"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="72"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="13"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="14"/>
+      <c r="I43" s="13"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>31</v>
+      <c r="B44" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="109" t="s">
+      <c r="B45" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="47">
+        <v>42528</v>
+      </c>
+      <c r="H45" s="47">
+        <v>42528</v>
+      </c>
+      <c r="I45" s="51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="48">
+        <v>42528</v>
+      </c>
+      <c r="H46" s="48">
+        <v>42528</v>
+      </c>
+      <c r="I46" s="52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="47">
+        <v>42539</v>
+      </c>
+      <c r="H47" s="47">
+        <v>42539</v>
+      </c>
+      <c r="I47" s="51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="49">
+        <v>42552</v>
+      </c>
+      <c r="H48" s="49">
+        <v>42552</v>
+      </c>
+      <c r="I48" s="53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="50">
+        <v>42545</v>
+      </c>
+      <c r="H49" s="50">
+        <v>42545</v>
+      </c>
+      <c r="I49" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="48">
+        <v>42538</v>
+      </c>
+      <c r="H50" s="48">
+        <v>42538</v>
+      </c>
+      <c r="I50" s="53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="50">
+        <v>42538</v>
+      </c>
+      <c r="H51" s="50">
+        <v>42538</v>
+      </c>
+      <c r="I51" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="48">
+        <v>42559</v>
+      </c>
+      <c r="H52" s="48">
+        <v>42559</v>
+      </c>
+      <c r="I52" s="53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="47">
+        <v>42566</v>
+      </c>
+      <c r="H53" s="47">
+        <v>42566</v>
+      </c>
+      <c r="I53" s="54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="117" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="48">
+        <v>42566</v>
+      </c>
+      <c r="H54" s="48">
+        <v>42566</v>
+      </c>
+      <c r="I54" s="53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="49">
-        <v>42494</v>
-      </c>
-      <c r="H45" s="49">
-        <v>42494</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="112" t="s">
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="50">
+        <v>42582</v>
+      </c>
+      <c r="H55" s="50">
+        <v>42582</v>
+      </c>
+      <c r="I55" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="50">
-        <v>42494</v>
-      </c>
-      <c r="H46" s="50">
-        <v>42494</v>
-      </c>
-      <c r="I46" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="109" t="s">
+    </row>
+    <row r="56" spans="2:9" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="118"/>
+      <c r="G56" s="49">
+        <v>42582</v>
+      </c>
+      <c r="H56" s="49">
+        <v>42582</v>
+      </c>
+      <c r="I56" s="53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="49">
-        <v>42499</v>
-      </c>
-      <c r="H47" s="49">
-        <v>42499</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="112" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="50">
-        <v>42499</v>
-      </c>
-      <c r="H48" s="50">
-        <v>42499</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="52"/>
-      <c r="C49" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55">
-        <v>42508</v>
-      </c>
-      <c r="H49" s="55">
-        <v>42508</v>
-      </c>
-      <c r="I49" s="56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="109" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="49">
-        <v>42508</v>
-      </c>
-      <c r="H50" s="49">
-        <v>42508</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="50">
-        <v>42521</v>
-      </c>
-      <c r="H51" s="50">
-        <v>42521</v>
-      </c>
-      <c r="I51" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="13"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="14"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="67"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="62"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="F54" s="64"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="121"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="113"/>
-      <c r="I55" s="116"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="65"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="118"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="93"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="13"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I58" s="21" t="s">
-        <v>50</v>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="47">
+        <v>42597</v>
+      </c>
+      <c r="H57" s="47">
+        <v>42597</v>
+      </c>
+      <c r="I57" s="54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="49">
+        <v>42597</v>
+      </c>
+      <c r="H58" s="49">
+        <v>42597</v>
+      </c>
+      <c r="I58" s="53" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="13"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="30"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="13"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="93"/>
+      <c r="B60" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="99"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="93"/>
+      <c r="G60" s="93"/>
+      <c r="H60" s="93"/>
+      <c r="I60" s="94"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="89"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="91"/>
+      <c r="B61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="96"/>
+      <c r="G61" s="83">
+        <v>0</v>
+      </c>
+      <c r="H61" s="84"/>
+      <c r="I61" s="85"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="86"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="87"/>
-    </row>
-    <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="24"/>
+      <c r="B62" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="30"/>
+      <c r="E62" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="24"/>
+      <c r="G62" s="77">
+        <v>100</v>
+      </c>
+      <c r="H62" s="78"/>
+      <c r="I62" s="79"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="30"/>
+      <c r="E63" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="97"/>
+      <c r="G63" s="80">
+        <v>100</v>
+      </c>
+      <c r="H63" s="81"/>
+      <c r="I63" s="82"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="30"/>
+      <c r="E64" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="74"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="12"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="12"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="27"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="74"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="60"/>
+      <c r="D68" s="120"/>
+      <c r="E68" s="121"/>
+      <c r="F68" s="121"/>
+      <c r="G68" s="121"/>
+      <c r="H68" s="121"/>
+      <c r="I68" s="122"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="58"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="87"/>
+      <c r="H69" s="87"/>
+      <c r="I69" s="119"/>
+    </row>
+    <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I33"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
+  <mergeCells count="42">
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
     <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
     <mergeCell ref="B50:F50"/>
     <mergeCell ref="B51:F51"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B52:F52"/>
     <mergeCell ref="B4:I4"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B44:F44"/>
     <mergeCell ref="D36:I36"/>
     <mergeCell ref="D37:I37"/>
@@ -4001,6 +3948,22 @@
     <mergeCell ref="G6:I12"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I33"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
@@ -4015,10 +3978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4027,129 +3990,156 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
+      <c r="A1" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>66</v>
+      <c r="D3" s="55">
+        <v>100</v>
+      </c>
+      <c r="E3" s="56">
+        <v>42439</v>
+      </c>
+      <c r="F3" s="56">
+        <v>42582</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>66</v>
+      <c r="A4" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="55">
+        <v>100</v>
+      </c>
+      <c r="E4" s="56">
+        <v>42439</v>
+      </c>
+      <c r="F4" s="56">
+        <v>42582</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>66</v>
+      <c r="A5" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="55">
+        <v>100</v>
+      </c>
+      <c r="E5" s="56">
+        <v>42439</v>
+      </c>
+      <c r="F5" s="56">
+        <v>42597</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>66</v>
+      <c r="A6" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="55">
+        <v>100</v>
+      </c>
+      <c r="E6" s="56">
+        <v>42439</v>
+      </c>
+      <c r="F6" s="56">
+        <v>42552</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="51"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
+      <c r="D9" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4164,7 +4154,7 @@
   <dimension ref="A3:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4175,169 +4165,132 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>75</v>
+      <c r="A3" s="46"/>
+      <c r="E3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="37">
-        <v>1</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="42">
-        <v>1</v>
-      </c>
-      <c r="G4" s="43">
+      <c r="A4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="E4" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="38">
+        <v>2</v>
+      </c>
+      <c r="G4" s="39">
         <f>F4/(SUM($F$4:$F$12))</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="37">
-        <v>6</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="42">
+      <c r="A5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="E5" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="38">
         <v>0</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="39">
         <f t="shared" ref="G5:G11" si="0">F5/(SUM($F$4:$F$12))</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="E6" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="37">
-        <v>1</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="42">
+      <c r="F6" s="38">
         <v>2</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="39">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="37">
-        <v>2</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="42">
+      <c r="A7" s="35"/>
+      <c r="B7" s="34"/>
+      <c r="E7" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="38">
         <v>0</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="37">
-        <v>1</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="42">
+      <c r="A8" s="35"/>
+      <c r="B8" s="34"/>
+      <c r="E8" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="38">
         <v>0</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="37">
-        <v>2</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="42">
+      <c r="A9" s="35"/>
+      <c r="B9" s="34"/>
+      <c r="E9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="38">
         <v>0</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="37">
-        <v>3</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="42">
+      <c r="A10" s="35"/>
+      <c r="B10" s="34"/>
+      <c r="E10" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="38">
         <v>0</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="37">
-        <v>16</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43">
+      <c r="A11" s="35"/>
+      <c r="B11" s="34"/>
+      <c r="E11" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="41"/>
+      <c r="E12" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>